--- a/Code/Results/Cases/Case_4_154/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_154/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.84900193149624</v>
+        <v>17.10369991047524</v>
       </c>
       <c r="C2">
-        <v>12.53817007450118</v>
+        <v>9.69444257126632</v>
       </c>
       <c r="D2">
-        <v>7.147518135241709</v>
+        <v>5.999117726759839</v>
       </c>
       <c r="E2">
-        <v>7.162552883629306</v>
+        <v>11.79695219597465</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.08001259623943</v>
+        <v>3.658881143502812</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.147956100867693</v>
+        <v>9.905606205952498</v>
       </c>
       <c r="M2">
-        <v>12.36689093276895</v>
+        <v>15.717485889696</v>
       </c>
       <c r="N2">
-        <v>12.31619938251083</v>
+        <v>18.92308446137799</v>
       </c>
       <c r="O2">
-        <v>19.41895678331207</v>
+        <v>26.4926244725041</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.412234805904</v>
+        <v>16.6922219281363</v>
       </c>
       <c r="C3">
-        <v>11.94537269926256</v>
+        <v>9.442203274051638</v>
       </c>
       <c r="D3">
-        <v>6.64820874651459</v>
+        <v>5.883223368905773</v>
       </c>
       <c r="E3">
-        <v>7.238380688476133</v>
+        <v>11.82643943626278</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.086913488305922</v>
+        <v>3.661493853868047</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.066667696905109</v>
+        <v>9.914286092087561</v>
       </c>
       <c r="M3">
-        <v>11.81431671781675</v>
+        <v>15.64014634852755</v>
       </c>
       <c r="N3">
-        <v>12.55230836303252</v>
+        <v>18.99127745930816</v>
       </c>
       <c r="O3">
-        <v>18.98810031187103</v>
+        <v>26.51080969034299</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.48006557983512</v>
+        <v>16.43795873322783</v>
       </c>
       <c r="C4">
-        <v>11.56620056998994</v>
+        <v>9.282282746470626</v>
       </c>
       <c r="D4">
-        <v>6.324958105084573</v>
+        <v>5.812736658206038</v>
       </c>
       <c r="E4">
-        <v>7.286713043729018</v>
+        <v>11.84553356296851</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.091275330671626</v>
+        <v>3.663183388450464</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.019239685857622</v>
+        <v>9.920992661896937</v>
       </c>
       <c r="M4">
-        <v>11.46756516202287</v>
+        <v>15.59526896086543</v>
       </c>
       <c r="N4">
-        <v>12.70007682375162</v>
+        <v>19.03506673561865</v>
       </c>
       <c r="O4">
-        <v>18.7386006397139</v>
+        <v>26.52889550351179</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.09937119337623</v>
+        <v>16.33409742804043</v>
       </c>
       <c r="C5">
-        <v>11.40795735053842</v>
+        <v>9.215901330781652</v>
       </c>
       <c r="D5">
-        <v>6.200540970427179</v>
+        <v>5.784225573019732</v>
       </c>
       <c r="E5">
-        <v>7.306856985138922</v>
+        <v>11.85356386815422</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.09308516305088</v>
+        <v>3.663893413655773</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.000540969769557</v>
+        <v>9.924072273665455</v>
       </c>
       <c r="M5">
-        <v>11.32457220771661</v>
+        <v>15.57765121416274</v>
       </c>
       <c r="N5">
-        <v>12.76103066994738</v>
+        <v>19.05339522506157</v>
       </c>
       <c r="O5">
-        <v>18.64071689026822</v>
+        <v>26.53800210475507</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.03817343641895</v>
+        <v>16.31684117954007</v>
       </c>
       <c r="C6">
-        <v>11.38145916498015</v>
+        <v>9.204807233628234</v>
       </c>
       <c r="D6">
-        <v>6.181209641954717</v>
+        <v>5.779505461442646</v>
       </c>
       <c r="E6">
-        <v>7.310228999428957</v>
+        <v>11.85491236981903</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.093387666159426</v>
+        <v>3.664012615036808</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.997474126429017</v>
+        <v>9.924604585472171</v>
       </c>
       <c r="M6">
-        <v>11.30073239535722</v>
+        <v>15.57476666830076</v>
       </c>
       <c r="N6">
-        <v>12.7711974770222</v>
+        <v>19.05646793592733</v>
       </c>
       <c r="O6">
-        <v>18.62469216483175</v>
+        <v>26.53961900514472</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.47482326412633</v>
+        <v>16.43655880908109</v>
       </c>
       <c r="C7">
-        <v>11.5640814016512</v>
+        <v>9.281392335783885</v>
       </c>
       <c r="D7">
-        <v>6.323141686646433</v>
+        <v>5.81235122823278</v>
       </c>
       <c r="E7">
-        <v>7.286982894711272</v>
+        <v>11.84564085223492</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.091299606452819</v>
+        <v>3.663192876844765</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.018984958649374</v>
+        <v>9.921032790709452</v>
       </c>
       <c r="M7">
-        <v>11.46564327721649</v>
+        <v>15.5950286305188</v>
       </c>
       <c r="N7">
-        <v>12.70089584114459</v>
+        <v>19.03531195824483</v>
       </c>
       <c r="O7">
-        <v>18.73726520346978</v>
+        <v>26.52901129285792</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.36392789096108</v>
+        <v>16.96225067646162</v>
       </c>
       <c r="C8">
-        <v>12.33697603602362</v>
+        <v>9.608549757234936</v>
       </c>
       <c r="D8">
-        <v>6.97879164362481</v>
+        <v>5.959043765720309</v>
       </c>
       <c r="E8">
-        <v>7.188331388809613</v>
+        <v>11.8069145489879</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.082366767254649</v>
+        <v>3.659764341171195</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.119415173281967</v>
+        <v>9.908313444358027</v>
       </c>
       <c r="M8">
-        <v>12.17801857753625</v>
+        <v>15.69028628809487</v>
       </c>
       <c r="N8">
-        <v>12.39705024654082</v>
+        <v>18.9462001781922</v>
       </c>
       <c r="O8">
-        <v>19.26728075958128</v>
+        <v>26.49745658196353</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.67588755899932</v>
+        <v>17.97368190471378</v>
       </c>
       <c r="C9">
-        <v>13.72901508375753</v>
+        <v>10.20783322272616</v>
       </c>
       <c r="D9">
-        <v>8.13414304190646</v>
+        <v>6.250153324930147</v>
       </c>
       <c r="E9">
-        <v>7.008860460962533</v>
+        <v>11.73878905624889</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.065790548697084</v>
+        <v>3.65371469599857</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.335852177585284</v>
+        <v>9.894280390614203</v>
       </c>
       <c r="M9">
-        <v>13.50879616572551</v>
+        <v>15.89713806916071</v>
       </c>
       <c r="N9">
-        <v>11.82176884709904</v>
+        <v>18.7866014650318</v>
       </c>
       <c r="O9">
-        <v>20.42539728264777</v>
+        <v>26.49060850561526</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.87596050198249</v>
+        <v>18.69657519228935</v>
       </c>
       <c r="C10">
-        <v>14.67357440091022</v>
+        <v>10.61964789636252</v>
       </c>
       <c r="D10">
-        <v>8.906271438013093</v>
+        <v>6.463660387667329</v>
       </c>
       <c r="E10">
-        <v>6.885414311338852</v>
+        <v>11.6934613078288</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.054113719844395</v>
+        <v>3.649676153421995</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.506458573269986</v>
+        <v>9.890595819694225</v>
       </c>
       <c r="M10">
-        <v>14.63830989486486</v>
+        <v>16.06041136148213</v>
       </c>
       <c r="N10">
-        <v>11.40920418441116</v>
+        <v>18.67847565771861</v>
       </c>
       <c r="O10">
-        <v>21.34759010498328</v>
+        <v>26.51923788231234</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.8276373493501</v>
+        <v>19.01945679543922</v>
       </c>
       <c r="C11">
-        <v>15.08602954576726</v>
+        <v>10.80031694677004</v>
       </c>
       <c r="D11">
-        <v>9.241517867062653</v>
+        <v>6.560213135321558</v>
       </c>
       <c r="E11">
-        <v>6.831062738296287</v>
+        <v>11.67385758482728</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.048893218576762</v>
+        <v>3.647926129516237</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.586528316446974</v>
+        <v>9.890351555386955</v>
       </c>
       <c r="M11">
-        <v>15.16219725215795</v>
+        <v>16.13693083112425</v>
       </c>
       <c r="N11">
-        <v>11.22312415308619</v>
+        <v>18.63124701625287</v>
       </c>
       <c r="O11">
-        <v>21.78239516239849</v>
+        <v>26.53957470504876</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.18107219306103</v>
+        <v>19.14074540529089</v>
       </c>
       <c r="C12">
-        <v>15.23973235379459</v>
+        <v>10.86773673022886</v>
       </c>
       <c r="D12">
-        <v>9.366222161978275</v>
+        <v>6.596653820271857</v>
       </c>
       <c r="E12">
-        <v>6.810739852050728</v>
+        <v>11.66657962671245</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.046927922755445</v>
+        <v>3.647275895929582</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.617197815387428</v>
+        <v>9.890464245331859</v>
       </c>
       <c r="M12">
-        <v>15.35684067099151</v>
+        <v>16.16621094899051</v>
       </c>
       <c r="N12">
-        <v>11.15283785369535</v>
+        <v>18.61364271494418</v>
       </c>
       <c r="O12">
-        <v>21.94923265983554</v>
+        <v>26.54832580082267</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.10526049102049</v>
+        <v>19.11466914064866</v>
       </c>
       <c r="C13">
-        <v>15.20674020936859</v>
+        <v>10.85326150492842</v>
       </c>
       <c r="D13">
-        <v>9.339463862441807</v>
+        <v>6.588811686722846</v>
       </c>
       <c r="E13">
-        <v>6.815105241012722</v>
+        <v>11.66814060096688</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.047350694632639</v>
+        <v>3.64741538214973</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.610577142048594</v>
+        <v>9.890430861932995</v>
       </c>
       <c r="M13">
-        <v>15.31508598759373</v>
+        <v>16.15989174627833</v>
       </c>
       <c r="N13">
-        <v>11.16796820724342</v>
+        <v>18.61742167888774</v>
       </c>
       <c r="O13">
-        <v>21.91320407236667</v>
+        <v>26.54639443503661</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.85685309240354</v>
+        <v>19.02945557953474</v>
       </c>
       <c r="C14">
-        <v>15.09872456914204</v>
+        <v>10.80588376594915</v>
       </c>
       <c r="D14">
-        <v>9.251822059598318</v>
+        <v>6.563213790684043</v>
       </c>
       <c r="E14">
-        <v>6.829385576023332</v>
+        <v>11.67325590909436</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.048731309422222</v>
+        <v>3.647872385021252</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.589044547766522</v>
+        <v>9.890356718548377</v>
       </c>
       <c r="M14">
-        <v>15.17828525775373</v>
+        <v>16.13933374522717</v>
       </c>
       <c r="N14">
-        <v>11.217338396268</v>
+        <v>18.62979309319649</v>
       </c>
       <c r="O14">
-        <v>21.79607720292147</v>
+        <v>26.54027363296424</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.7037957913017</v>
+        <v>18.97712878291487</v>
       </c>
       <c r="C15">
-        <v>15.03223824508079</v>
+        <v>10.77673283506112</v>
       </c>
       <c r="D15">
-        <v>9.197848065501129</v>
+        <v>6.547517351296964</v>
       </c>
       <c r="E15">
-        <v>6.83816639540618</v>
+        <v>11.67640812072634</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.049578437875785</v>
+        <v>3.648153933489912</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.575900512291256</v>
+        <v>9.89033800259365</v>
       </c>
       <c r="M15">
-        <v>15.09400573215514</v>
+        <v>16.12678037289605</v>
       </c>
       <c r="N15">
-        <v>11.24760066483222</v>
+        <v>18.63740738412385</v>
       </c>
       <c r="O15">
-        <v>21.72461812882437</v>
+        <v>26.53666113666115</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.81278752360486</v>
+        <v>18.675343445068</v>
       </c>
       <c r="C16">
-        <v>14.64627186020075</v>
+        <v>10.60770334529958</v>
       </c>
       <c r="D16">
-        <v>8.884044932119997</v>
+        <v>6.457335500816262</v>
       </c>
       <c r="E16">
-        <v>6.889002565071927</v>
+        <v>11.69476285507479</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.054456601202787</v>
+        <v>3.649792269161063</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.501274884205234</v>
+        <v>9.890640536533821</v>
       </c>
       <c r="M16">
-        <v>14.60354525614206</v>
+        <v>16.05545420372146</v>
       </c>
       <c r="N16">
-        <v>11.42139278508152</v>
+        <v>18.68160144328762</v>
       </c>
       <c r="O16">
-        <v>21.31948098127791</v>
+        <v>26.51805586678874</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.25367982428501</v>
+        <v>18.48859023434958</v>
       </c>
       <c r="C17">
-        <v>14.40507174127549</v>
+        <v>10.50227410998334</v>
       </c>
       <c r="D17">
-        <v>8.687476881510216</v>
+        <v>6.40183651092467</v>
       </c>
       <c r="E17">
-        <v>6.920650545764884</v>
+        <v>11.70628273137053</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.057471535930468</v>
+        <v>3.650819603406873</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.4561207277368</v>
+        <v>9.891192383367859</v>
       </c>
       <c r="M17">
-        <v>14.29592546416052</v>
+        <v>16.0122596657861</v>
       </c>
       <c r="N17">
-        <v>11.52838239500658</v>
+        <v>18.70921361023623</v>
       </c>
       <c r="O17">
-        <v>21.07484731791338</v>
+        <v>26.50851438545007</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.9274620540233</v>
+        <v>18.38061984087542</v>
       </c>
       <c r="C18">
-        <v>14.26471768570519</v>
+        <v>10.44100839122568</v>
       </c>
       <c r="D18">
-        <v>8.572906832676662</v>
+        <v>6.369863289272266</v>
       </c>
       <c r="E18">
-        <v>6.939023508059196</v>
+        <v>11.71300433292168</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.059214344141329</v>
+        <v>3.651418703873078</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.430381046201834</v>
+        <v>9.891644612504445</v>
       </c>
       <c r="M18">
-        <v>14.11649286528011</v>
+        <v>15.9876278542568</v>
       </c>
       <c r="N18">
-        <v>11.59007369162044</v>
+        <v>18.72527981121949</v>
       </c>
       <c r="O18">
-        <v>20.9355804153229</v>
+        <v>26.50371489422331</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.81621085118773</v>
+        <v>18.34397148209846</v>
       </c>
       <c r="C19">
-        <v>14.21691804631567</v>
+        <v>10.42015860606357</v>
       </c>
       <c r="D19">
-        <v>8.533854555265844</v>
+        <v>6.359030064735614</v>
       </c>
       <c r="E19">
-        <v>6.945273481085379</v>
+        <v>11.71529660109427</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.059805967744921</v>
+        <v>3.651622960247801</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.421706010291765</v>
+        <v>9.891820905705474</v>
       </c>
       <c r="M19">
-        <v>14.05530907562883</v>
+        <v>15.97932502344959</v>
       </c>
       <c r="N19">
-        <v>11.61098920937874</v>
+        <v>18.73075126817873</v>
       </c>
       <c r="O19">
-        <v>20.88867490953463</v>
+        <v>26.50220815499373</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.31367651120116</v>
+        <v>18.50852877271676</v>
       </c>
       <c r="C20">
-        <v>14.4309158834081</v>
+        <v>10.51356225921567</v>
       </c>
       <c r="D20">
-        <v>8.708557710174867</v>
+        <v>6.407750112695211</v>
       </c>
       <c r="E20">
-        <v>6.917263988195662</v>
+        <v>11.70504652316679</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.057149701578993</v>
+        <v>3.650709393221716</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.460903513992491</v>
+        <v>9.891119689739627</v>
       </c>
       <c r="M20">
-        <v>14.3289301555329</v>
+        <v>16.01683593707024</v>
       </c>
       <c r="N20">
-        <v>11.5169776214723</v>
+        <v>18.70625517237284</v>
       </c>
       <c r="O20">
-        <v>21.10074009302739</v>
+        <v>26.50945884202068</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.93000381942813</v>
+        <v>19.05451237853622</v>
       </c>
       <c r="C21">
-        <v>15.13051881990518</v>
+        <v>10.81982705441409</v>
       </c>
       <c r="D21">
-        <v>9.277625094598218</v>
+        <v>6.570736121127386</v>
       </c>
       <c r="E21">
-        <v>6.825184072527336</v>
+        <v>11.67174947350459</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.048325487643035</v>
+        <v>3.647737814500283</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.595359759253546</v>
+        <v>9.890372933588395</v>
       </c>
       <c r="M21">
-        <v>15.21856791982122</v>
+        <v>16.14536403622429</v>
       </c>
       <c r="N21">
-        <v>11.20283277106261</v>
+        <v>18.62615171691391</v>
       </c>
       <c r="O21">
-        <v>21.83042091793228</v>
+        <v>26.54204298307006</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.94595219868127</v>
+        <v>19.40558429179667</v>
       </c>
       <c r="C22">
-        <v>15.57327060907785</v>
+        <v>11.01417070818443</v>
       </c>
       <c r="D22">
-        <v>9.636478339027448</v>
+        <v>6.676530483238598</v>
       </c>
       <c r="E22">
-        <v>6.766513490400365</v>
+        <v>11.65083602333768</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.04262512493854</v>
+        <v>3.645868326349254</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.685266526637808</v>
+        <v>9.89108049039984</v>
       </c>
       <c r="M22">
-        <v>15.77822546496827</v>
+        <v>16.23112651700484</v>
       </c>
       <c r="N22">
-        <v>10.99853248536309</v>
+        <v>18.5754318044992</v>
       </c>
       <c r="O22">
-        <v>22.32005549967901</v>
+        <v>26.56945718721253</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.40737663466442</v>
+        <v>19.21877541334906</v>
       </c>
       <c r="C23">
-        <v>15.33828970953583</v>
+        <v>10.91098945822415</v>
       </c>
       <c r="D23">
-        <v>9.44612823291426</v>
+        <v>6.620144984774676</v>
       </c>
       <c r="E23">
-        <v>6.79768910291881</v>
+        <v>11.66192051016034</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.045661950080442</v>
+        <v>3.646859485397859</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.637096989832789</v>
+        <v>9.890593711400689</v>
       </c>
       <c r="M23">
-        <v>15.4814940247831</v>
+        <v>16.18519866744385</v>
       </c>
       <c r="N23">
-        <v>11.10749697497219</v>
+        <v>18.60235309266371</v>
       </c>
       <c r="O23">
-        <v>22.05756326982026</v>
+        <v>26.55426667859977</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.28656690470773</v>
+        <v>18.499516429852</v>
       </c>
       <c r="C24">
-        <v>14.41923699410811</v>
+        <v>10.50846091828521</v>
       </c>
       <c r="D24">
-        <v>8.699031932082473</v>
+        <v>6.405076776272438</v>
       </c>
       <c r="E24">
-        <v>6.918794496024313</v>
+        <v>11.70560510550632</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.057295173240012</v>
+        <v>3.650759192850381</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.458740530544982</v>
+        <v>9.89115213407265</v>
       </c>
       <c r="M24">
-        <v>14.3140167691757</v>
+        <v>16.01476637631308</v>
       </c>
       <c r="N24">
-        <v>11.52213315026706</v>
+        <v>18.70759208516215</v>
       </c>
       <c r="O24">
-        <v>21.08902968151512</v>
+        <v>26.50902971606635</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.82133698897267</v>
+        <v>17.70303987267696</v>
       </c>
       <c r="C25">
-        <v>13.36601756697087</v>
+        <v>10.05053216604858</v>
       </c>
       <c r="D25">
-        <v>7.835268862400451</v>
+        <v>6.171291586994531</v>
       </c>
       <c r="E25">
-        <v>7.055927640233346</v>
+        <v>11.75638626044031</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.070181229608848</v>
+        <v>3.655279635503327</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.275242823987123</v>
+        <v>9.896911084331537</v>
       </c>
       <c r="M25">
-        <v>13.15673233775636</v>
+        <v>15.83912507696009</v>
       </c>
       <c r="N25">
-        <v>11.97543838888003</v>
+        <v>18.82816611510312</v>
       </c>
       <c r="O25">
-        <v>20.0994842192388</v>
+        <v>26.48655410936829</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_154/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_154/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.10369991047524</v>
+        <v>20.84900193149627</v>
       </c>
       <c r="C2">
-        <v>9.69444257126632</v>
+        <v>12.53817007450108</v>
       </c>
       <c r="D2">
-        <v>5.999117726759839</v>
+        <v>7.147518135241724</v>
       </c>
       <c r="E2">
-        <v>11.79695219597465</v>
+        <v>7.162552883629371</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.658881143502812</v>
+        <v>2.080012596239432</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.905606205952498</v>
+        <v>6.147956100867711</v>
       </c>
       <c r="M2">
-        <v>15.717485889696</v>
+        <v>12.36689093276896</v>
       </c>
       <c r="N2">
-        <v>18.92308446137799</v>
+        <v>12.31619938251086</v>
       </c>
       <c r="O2">
-        <v>26.4926244725041</v>
+        <v>19.41895678331216</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.6922219281363</v>
+        <v>19.412234805904</v>
       </c>
       <c r="C3">
-        <v>9.442203274051638</v>
+        <v>11.94537269926264</v>
       </c>
       <c r="D3">
-        <v>5.883223368905773</v>
+        <v>6.648208746514642</v>
       </c>
       <c r="E3">
-        <v>11.82643943626278</v>
+        <v>7.238380688476133</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.661493853868047</v>
+        <v>2.086913488305655</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.914286092087561</v>
+        <v>6.066667696905102</v>
       </c>
       <c r="M3">
-        <v>15.64014634852755</v>
+        <v>11.81431671781673</v>
       </c>
       <c r="N3">
-        <v>18.99127745930816</v>
+        <v>12.55230836303245</v>
       </c>
       <c r="O3">
-        <v>26.51080969034299</v>
+        <v>18.98810031187092</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.43795873322783</v>
+        <v>18.48006557983517</v>
       </c>
       <c r="C4">
-        <v>9.282282746470626</v>
+        <v>11.56620056999005</v>
       </c>
       <c r="D4">
-        <v>5.812736658206038</v>
+        <v>6.324958105084601</v>
       </c>
       <c r="E4">
-        <v>11.84553356296851</v>
+        <v>7.286713043729083</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.663183388450464</v>
+        <v>2.091275330671492</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.920992661896937</v>
+        <v>6.019239685857669</v>
       </c>
       <c r="M4">
-        <v>15.59526896086543</v>
+        <v>11.46756516202284</v>
       </c>
       <c r="N4">
-        <v>19.03506673561865</v>
+        <v>12.70007682375152</v>
       </c>
       <c r="O4">
-        <v>26.52889550351179</v>
+        <v>18.7386006397137</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.33409742804043</v>
+        <v>18.09937119337625</v>
       </c>
       <c r="C5">
-        <v>9.215901330781652</v>
+        <v>11.40795735053863</v>
       </c>
       <c r="D5">
-        <v>5.784225573019732</v>
+        <v>6.200540970427166</v>
       </c>
       <c r="E5">
-        <v>11.85356386815422</v>
+        <v>7.306856985138987</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.663893413655773</v>
+        <v>2.093085163051011</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.924072273665455</v>
+        <v>6.000540969769532</v>
       </c>
       <c r="M5">
-        <v>15.57765121416274</v>
+        <v>11.32457220771662</v>
       </c>
       <c r="N5">
-        <v>19.05339522506157</v>
+        <v>12.76103066994734</v>
       </c>
       <c r="O5">
-        <v>26.53800210475507</v>
+        <v>18.64071689026817</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.31684117954007</v>
+        <v>18.03817343641893</v>
       </c>
       <c r="C6">
-        <v>9.204807233628234</v>
+        <v>11.38145916498007</v>
       </c>
       <c r="D6">
-        <v>5.779505461442646</v>
+        <v>6.181209641954734</v>
       </c>
       <c r="E6">
-        <v>11.85491236981903</v>
+        <v>7.310228999428755</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.664012615036808</v>
+        <v>2.093387666159293</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.924604585472171</v>
+        <v>5.997474126428935</v>
       </c>
       <c r="M6">
-        <v>15.57476666830076</v>
+        <v>11.30073239535718</v>
       </c>
       <c r="N6">
-        <v>19.05646793592733</v>
+        <v>12.77119747702226</v>
       </c>
       <c r="O6">
-        <v>26.53961900514472</v>
+        <v>18.62469216483185</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.43655880908109</v>
+        <v>18.47482326412633</v>
       </c>
       <c r="C7">
-        <v>9.281392335783885</v>
+        <v>11.56408140165112</v>
       </c>
       <c r="D7">
-        <v>5.81235122823278</v>
+        <v>6.323141686646484</v>
       </c>
       <c r="E7">
-        <v>11.84564085223492</v>
+        <v>7.286982894711204</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.663192876844765</v>
+        <v>2.091299606452551</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.921032790709452</v>
+        <v>6.018984958649371</v>
       </c>
       <c r="M7">
-        <v>15.5950286305188</v>
+        <v>11.4656432772165</v>
       </c>
       <c r="N7">
-        <v>19.03531195824483</v>
+        <v>12.70089584114466</v>
       </c>
       <c r="O7">
-        <v>26.52901129285792</v>
+        <v>18.73726520346989</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.96225067646162</v>
+        <v>20.36392789096116</v>
       </c>
       <c r="C8">
-        <v>9.608549757234936</v>
+        <v>12.33697603602382</v>
       </c>
       <c r="D8">
-        <v>5.959043765720309</v>
+        <v>6.978791643624806</v>
       </c>
       <c r="E8">
-        <v>11.8069145489879</v>
+        <v>7.188331388809679</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.659764341171195</v>
+        <v>2.082366767254782</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.908313444358027</v>
+        <v>6.119415173281979</v>
       </c>
       <c r="M8">
-        <v>15.69028628809487</v>
+        <v>12.17801857753621</v>
       </c>
       <c r="N8">
-        <v>18.9462001781922</v>
+        <v>12.39705024654069</v>
       </c>
       <c r="O8">
-        <v>26.49745658196353</v>
+        <v>19.26728075958111</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.97368190471378</v>
+        <v>23.67588755899934</v>
       </c>
       <c r="C9">
-        <v>10.20783322272616</v>
+        <v>13.72901508375759</v>
       </c>
       <c r="D9">
-        <v>6.250153324930147</v>
+        <v>8.13414304190646</v>
       </c>
       <c r="E9">
-        <v>11.73878905624889</v>
+        <v>7.008860460962469</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.65371469599857</v>
+        <v>2.065790548697084</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.894280390614203</v>
+        <v>6.335852177585241</v>
       </c>
       <c r="M9">
-        <v>15.89713806916071</v>
+        <v>13.50879616572551</v>
       </c>
       <c r="N9">
-        <v>18.7866014650318</v>
+        <v>11.82176884709901</v>
       </c>
       <c r="O9">
-        <v>26.49060850561526</v>
+        <v>20.42539728264777</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.69657519228935</v>
+        <v>25.87596050198249</v>
       </c>
       <c r="C10">
-        <v>10.61964789636252</v>
+        <v>14.67357440091015</v>
       </c>
       <c r="D10">
-        <v>6.463660387667329</v>
+        <v>8.906271438013098</v>
       </c>
       <c r="E10">
-        <v>11.6934613078288</v>
+        <v>6.885414311338852</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.649676153421995</v>
+        <v>2.054113719844397</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.890595819694225</v>
+        <v>6.506458573270023</v>
       </c>
       <c r="M10">
-        <v>16.06041136148213</v>
+        <v>14.63830989486485</v>
       </c>
       <c r="N10">
-        <v>18.67847565771861</v>
+        <v>11.40920418441113</v>
       </c>
       <c r="O10">
-        <v>26.51923788231234</v>
+        <v>21.34759010498329</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.01945679543922</v>
+        <v>26.82763734935008</v>
       </c>
       <c r="C11">
-        <v>10.80031694677004</v>
+        <v>15.08602954576744</v>
       </c>
       <c r="D11">
-        <v>6.560213135321558</v>
+        <v>9.241517867062706</v>
       </c>
       <c r="E11">
-        <v>11.67385758482728</v>
+        <v>6.831062738296353</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.647926129516237</v>
+        <v>2.048893218577029</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.890351555386955</v>
+        <v>6.586528316446898</v>
       </c>
       <c r="M11">
-        <v>16.13693083112425</v>
+        <v>15.16219725215797</v>
       </c>
       <c r="N11">
-        <v>18.63124701625287</v>
+        <v>11.22312415308633</v>
       </c>
       <c r="O11">
-        <v>26.53957470504876</v>
+        <v>21.78239516239846</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.14074540529089</v>
+        <v>27.18107219306102</v>
       </c>
       <c r="C12">
-        <v>10.86773673022886</v>
+        <v>15.23973235379451</v>
       </c>
       <c r="D12">
-        <v>6.596653820271857</v>
+        <v>9.366222161978243</v>
       </c>
       <c r="E12">
-        <v>11.66657962671245</v>
+        <v>6.810739852050729</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.647275895929582</v>
+        <v>2.046927922755579</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.890464245331859</v>
+        <v>6.617197815387439</v>
       </c>
       <c r="M12">
-        <v>16.16621094899051</v>
+        <v>15.35684067099149</v>
       </c>
       <c r="N12">
-        <v>18.61364271494418</v>
+        <v>11.15283785369542</v>
       </c>
       <c r="O12">
-        <v>26.54832580082267</v>
+        <v>21.94923265983554</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.11466914064866</v>
+        <v>27.10526049102049</v>
       </c>
       <c r="C13">
-        <v>10.85326150492842</v>
+        <v>15.20674020936853</v>
       </c>
       <c r="D13">
-        <v>6.588811686722846</v>
+        <v>9.339463862441784</v>
       </c>
       <c r="E13">
-        <v>11.66814060096688</v>
+        <v>6.81510524101272</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.64741538214973</v>
+        <v>2.047350694632239</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.890430861932995</v>
+        <v>6.610577142048638</v>
       </c>
       <c r="M13">
-        <v>16.15989174627833</v>
+        <v>15.31508598759373</v>
       </c>
       <c r="N13">
-        <v>18.61742167888774</v>
+        <v>11.16796820724339</v>
       </c>
       <c r="O13">
-        <v>26.54639443503661</v>
+        <v>21.91320407236666</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.02945557953474</v>
+        <v>26.85685309240354</v>
       </c>
       <c r="C14">
-        <v>10.80588376594915</v>
+        <v>15.09872456914212</v>
       </c>
       <c r="D14">
-        <v>6.563213790684043</v>
+        <v>9.251822059598366</v>
       </c>
       <c r="E14">
-        <v>11.67325590909436</v>
+        <v>6.82938557602353</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.647872385021252</v>
+        <v>2.048731309422488</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.890356718548377</v>
+        <v>6.589044547766565</v>
       </c>
       <c r="M14">
-        <v>16.13933374522717</v>
+        <v>15.1782852577537</v>
       </c>
       <c r="N14">
-        <v>18.62979309319649</v>
+        <v>11.21733839626797</v>
       </c>
       <c r="O14">
-        <v>26.54027363296424</v>
+        <v>21.79607720292141</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.97712878291487</v>
+        <v>26.70379579130175</v>
       </c>
       <c r="C15">
-        <v>10.77673283506112</v>
+        <v>15.03223824508097</v>
       </c>
       <c r="D15">
-        <v>6.547517351296964</v>
+        <v>9.197848065501152</v>
       </c>
       <c r="E15">
-        <v>11.67640812072634</v>
+        <v>6.838166395406174</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.648153933489912</v>
+        <v>2.049578437875518</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.89033800259365</v>
+        <v>6.575900512291259</v>
       </c>
       <c r="M15">
-        <v>16.12678037289605</v>
+        <v>15.09400573215517</v>
       </c>
       <c r="N15">
-        <v>18.63740738412385</v>
+        <v>11.24760066483219</v>
       </c>
       <c r="O15">
-        <v>26.53666113666115</v>
+        <v>21.72461812882429</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.675343445068</v>
+        <v>25.81278752360487</v>
       </c>
       <c r="C16">
-        <v>10.60770334529958</v>
+        <v>14.64627186020076</v>
       </c>
       <c r="D16">
-        <v>6.457335500816262</v>
+        <v>8.884044932119957</v>
       </c>
       <c r="E16">
-        <v>11.69476285507479</v>
+        <v>6.889002565071864</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.649792269161063</v>
+        <v>2.05445660120292</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.890640536533821</v>
+        <v>6.501274884205227</v>
       </c>
       <c r="M16">
-        <v>16.05545420372146</v>
+        <v>14.60354525614209</v>
       </c>
       <c r="N16">
-        <v>18.68160144328762</v>
+        <v>11.42139278508152</v>
       </c>
       <c r="O16">
-        <v>26.51805586678874</v>
+        <v>21.31948098127792</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.48859023434958</v>
+        <v>25.25367982428502</v>
       </c>
       <c r="C17">
-        <v>10.50227410998334</v>
+        <v>14.40507174127534</v>
       </c>
       <c r="D17">
-        <v>6.40183651092467</v>
+        <v>8.68747688151034</v>
       </c>
       <c r="E17">
-        <v>11.70628273137053</v>
+        <v>6.920650545764816</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.650819603406873</v>
+        <v>2.057471535930468</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.891192383367859</v>
+        <v>6.456120727736836</v>
       </c>
       <c r="M17">
-        <v>16.0122596657861</v>
+        <v>14.29592546416051</v>
       </c>
       <c r="N17">
-        <v>18.70921361023623</v>
+        <v>11.52838239500658</v>
       </c>
       <c r="O17">
-        <v>26.50851438545007</v>
+        <v>21.07484731791346</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.38061984087542</v>
+        <v>24.92746205402331</v>
       </c>
       <c r="C18">
-        <v>10.44100839122568</v>
+        <v>14.26471768570513</v>
       </c>
       <c r="D18">
-        <v>6.369863289272266</v>
+        <v>8.572906832676663</v>
       </c>
       <c r="E18">
-        <v>11.71300433292168</v>
+        <v>6.939023508059326</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.651418703873078</v>
+        <v>2.059214344141464</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.891644612504445</v>
+        <v>6.430381046201837</v>
       </c>
       <c r="M18">
-        <v>15.9876278542568</v>
+        <v>14.11649286528009</v>
       </c>
       <c r="N18">
-        <v>18.72527981121949</v>
+        <v>11.5900736916204</v>
       </c>
       <c r="O18">
-        <v>26.50371489422331</v>
+        <v>20.93558041532281</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.34397148209846</v>
+        <v>24.81621085118771</v>
       </c>
       <c r="C19">
-        <v>10.42015860606357</v>
+        <v>14.21691804631575</v>
       </c>
       <c r="D19">
-        <v>6.359030064735614</v>
+        <v>8.533854555265815</v>
       </c>
       <c r="E19">
-        <v>11.71529660109427</v>
+        <v>6.945273481085376</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.651622960247801</v>
+        <v>2.059805967745191</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.891820905705474</v>
+        <v>6.42170601029173</v>
       </c>
       <c r="M19">
-        <v>15.97932502344959</v>
+        <v>14.05530907562879</v>
       </c>
       <c r="N19">
-        <v>18.73075126817873</v>
+        <v>11.61098920937877</v>
       </c>
       <c r="O19">
-        <v>26.50220815499373</v>
+        <v>20.88867490953467</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.50852877271676</v>
+        <v>25.31367651120106</v>
       </c>
       <c r="C20">
-        <v>10.51356225921567</v>
+        <v>14.43091588340817</v>
       </c>
       <c r="D20">
-        <v>6.407750112695211</v>
+        <v>8.708557710174876</v>
       </c>
       <c r="E20">
-        <v>11.70504652316679</v>
+        <v>6.917263988195596</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.650709393221716</v>
+        <v>2.057149701578861</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.891119689739627</v>
+        <v>6.460903513992481</v>
       </c>
       <c r="M20">
-        <v>16.01683593707024</v>
+        <v>14.32893015553284</v>
       </c>
       <c r="N20">
-        <v>18.70625517237284</v>
+        <v>11.51697762147237</v>
       </c>
       <c r="O20">
-        <v>26.50945884202068</v>
+        <v>21.10074009302748</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.05451237853622</v>
+        <v>26.93000381942818</v>
       </c>
       <c r="C21">
-        <v>10.81982705441409</v>
+        <v>15.13051881990517</v>
       </c>
       <c r="D21">
-        <v>6.570736121127386</v>
+        <v>9.277625094598218</v>
       </c>
       <c r="E21">
-        <v>11.67174947350459</v>
+        <v>6.825184072527405</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.647737814500283</v>
+        <v>2.048325487643035</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.890372933588395</v>
+        <v>6.595359759253543</v>
       </c>
       <c r="M21">
-        <v>16.14536403622429</v>
+        <v>15.21856791982124</v>
       </c>
       <c r="N21">
-        <v>18.62615171691391</v>
+        <v>11.20283277106257</v>
       </c>
       <c r="O21">
-        <v>26.54204298307006</v>
+        <v>21.83042091793233</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.40558429179667</v>
+        <v>27.94595219868129</v>
       </c>
       <c r="C22">
-        <v>11.01417070818443</v>
+        <v>15.57327060907786</v>
       </c>
       <c r="D22">
-        <v>6.676530483238598</v>
+        <v>9.636478339027436</v>
       </c>
       <c r="E22">
-        <v>11.65083602333768</v>
+        <v>6.766513490400494</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.645868326349254</v>
+        <v>2.042625124938274</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.89108049039984</v>
+        <v>6.685266526637898</v>
       </c>
       <c r="M22">
-        <v>16.23112651700484</v>
+        <v>15.77822546496823</v>
       </c>
       <c r="N22">
-        <v>18.5754318044992</v>
+        <v>10.99853248536309</v>
       </c>
       <c r="O22">
-        <v>26.56945718721253</v>
+        <v>22.32005549967905</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.21877541334906</v>
+        <v>27.40737663466444</v>
       </c>
       <c r="C23">
-        <v>10.91098945822415</v>
+        <v>15.3382897095358</v>
       </c>
       <c r="D23">
-        <v>6.620144984774676</v>
+        <v>9.446128232914424</v>
       </c>
       <c r="E23">
-        <v>11.66192051016034</v>
+        <v>6.79768910291881</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.646859485397859</v>
+        <v>2.045661950080309</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.890593711400689</v>
+        <v>6.637096989832815</v>
       </c>
       <c r="M23">
-        <v>16.18519866744385</v>
+        <v>15.48149402478313</v>
       </c>
       <c r="N23">
-        <v>18.60235309266371</v>
+        <v>11.10749697497208</v>
       </c>
       <c r="O23">
-        <v>26.55426667859977</v>
+        <v>22.0575632698202</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.499516429852</v>
+        <v>25.2865669047077</v>
       </c>
       <c r="C24">
-        <v>10.50846091828521</v>
+        <v>14.41923699410818</v>
       </c>
       <c r="D24">
-        <v>6.405076776272438</v>
+        <v>8.699031932082466</v>
       </c>
       <c r="E24">
-        <v>11.70560510550632</v>
+        <v>6.918794496024443</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.650759192850381</v>
+        <v>2.057295173240146</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.89115213407265</v>
+        <v>6.458740530544975</v>
       </c>
       <c r="M24">
-        <v>16.01476637631308</v>
+        <v>14.31401676917566</v>
       </c>
       <c r="N24">
-        <v>18.70759208516215</v>
+        <v>11.52213315026713</v>
       </c>
       <c r="O24">
-        <v>26.50902971606635</v>
+        <v>21.08902968151519</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.70303987267696</v>
+        <v>22.82133698897265</v>
       </c>
       <c r="C25">
-        <v>10.05053216604858</v>
+        <v>13.36601756697081</v>
       </c>
       <c r="D25">
-        <v>6.171291586994531</v>
+        <v>7.835268862400424</v>
       </c>
       <c r="E25">
-        <v>11.75638626044031</v>
+        <v>7.055927640233278</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.655279635503327</v>
+        <v>2.070181229608715</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.896911084331537</v>
+        <v>6.275242823987107</v>
       </c>
       <c r="M25">
-        <v>15.83912507696009</v>
+        <v>13.15673233775638</v>
       </c>
       <c r="N25">
-        <v>18.82816611510312</v>
+        <v>11.97543838887999</v>
       </c>
       <c r="O25">
-        <v>26.48655410936829</v>
+        <v>20.0994842192388</v>
       </c>
     </row>
   </sheetData>
